--- a/ege26/ответы.xlsx
+++ b/ege26/ответы.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\ege26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="7245"/>
   </bookViews>
@@ -532,7 +537,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +559,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,6 +623,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -615,6 +641,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -663,7 +692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1924,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1943,7 +1972,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2007,7 +2036,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2023,7 +2052,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2031,7 +2060,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2047,7 +2076,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2127,7 +2156,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2135,7 +2164,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2143,7 +2172,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="10" t="s">
         <v>153</v>
       </c>
     </row>

--- a/ege26/ответы.xlsx
+++ b/ege26/ответы.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\ege26\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="7245"/>
   </bookViews>
@@ -537,7 +532,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +569,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -602,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +631,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1931,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1972,7 +1979,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="12" t="s">
         <v>128</v>
       </c>
     </row>

--- a/ege26/ответы.xlsx
+++ b/ege26/ответы.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\ege26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="7245"/>
   </bookViews>
@@ -532,7 +537,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +580,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -603,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +654,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +722,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2018,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="9" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2035,7 +2058,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2131,7 +2154,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="13" t="s">
         <v>147</v>
       </c>
     </row>

--- a/ege26/ответы.xlsx
+++ b/ege26/ответы.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\ege26\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="7245"/>
   </bookViews>
@@ -537,7 +532,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,18 +575,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -620,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,11 +636,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1931,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2002,7 +1979,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2018,7 +1995,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2058,7 +2035,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2066,7 +2043,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2082,7 +2059,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2090,7 +2067,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2106,7 +2083,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2154,7 +2131,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2186,7 +2163,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2194,7 +2171,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2202,7 +2179,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>153</v>
       </c>
     </row>

--- a/ege26/ответы.xlsx
+++ b/ege26/ответы.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\ege26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="7245"/>
   </bookViews>
@@ -532,7 +537,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +580,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -603,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,6 +655,15 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1573,7 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1787,7 +1813,7 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2187,7 +2213,7 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2195,7 +2221,7 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2203,7 +2229,7 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2211,7 +2237,7 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2219,7 +2245,7 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="8" t="s">
         <v>158</v>
       </c>
     </row>
